--- a/data/lab-analyses_raw-data/Summer_LakeErie_mussel_CN_tissue_data.xlsx
+++ b/data/lab-analyses_raw-data/Summer_LakeErie_mussel_CN_tissue_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauls\Research\Miscellaneous\CN Analysis\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/lab-analyses_raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{086D98F7-C139-41CF-A968-95F4323AA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:40009_{086D98F7-C139-41CF-A968-95F4323AA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F92DCBF-A11A-4B85-9E82-3C45DC43F10E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc 092022" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,25 @@
     <sheet name="sandra" sheetId="4" r:id="rId4"/>
     <sheet name="erie" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -512,13 +522,25 @@
     <t>C:N</t>
   </si>
   <si>
-    <t>&lt;this sample had no weight so I used 3 as a standin&gt;</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Average C:N</t>
+  </si>
+  <si>
+    <t>Average %N</t>
+  </si>
+  <si>
+    <t>&lt;this sample had no weight so I used 3 as a standin&gt; won't be used for average calculation</t>
+  </si>
+  <si>
+    <t>Average %C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2127,162 +2149,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="kwq2022 092022"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="kwq 2022"/>
-      <sheetName val="emma1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="M5">
-            <v>8150</v>
-          </cell>
-          <cell r="O5">
-            <v>0.22077159999999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7">
-            <v>1467</v>
-          </cell>
-          <cell r="O7">
-            <v>3.99896E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>1993</v>
-          </cell>
-          <cell r="O8">
-            <v>5.5115200000000003E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>5998</v>
-          </cell>
-          <cell r="O9">
-            <v>0.1630664</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>1083</v>
-          </cell>
-          <cell r="O10">
-            <v>2.9836799999999997E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>2804</v>
-          </cell>
-          <cell r="O11">
-            <v>7.8114400000000001E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>1754</v>
-          </cell>
-          <cell r="O12">
-            <v>4.6205599999999999E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>1869</v>
-          </cell>
-          <cell r="O13">
-            <v>5.2007199999999996E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14">
-            <v>33</v>
-          </cell>
-          <cell r="O14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15">
-            <v>11</v>
-          </cell>
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>74</v>
-          </cell>
-          <cell r="O16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>35</v>
-          </cell>
-          <cell r="O17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18">
-            <v>11</v>
-          </cell>
-          <cell r="O18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="M19">
-            <v>33</v>
-          </cell>
-          <cell r="O19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>9</v>
-          </cell>
-          <cell r="O20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>9</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>24</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2579,16 +2445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2670,7 +2536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2708,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2746,7 +2612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2784,7 +2650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2822,7 +2688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2863,7 +2729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2904,7 +2770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2945,7 +2811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2983,7 +2849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3021,7 +2887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3059,7 +2925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3097,7 +2963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3138,7 +3004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3176,7 +3042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3217,7 +3083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3255,7 +3121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3296,7 +3162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3334,7 +3200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3372,7 +3238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3410,7 +3276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3448,7 +3314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3486,7 +3352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3524,7 +3390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3562,7 +3428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3600,7 +3466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3638,7 +3504,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3676,7 +3542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3714,7 +3580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3752,7 +3618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3790,7 +3656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3828,7 +3694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3866,7 +3732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3904,7 +3770,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3942,7 +3808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3980,7 +3846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4021,7 +3887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4062,7 +3928,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4100,7 +3966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4138,7 +4004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4176,7 +4042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4214,7 +4080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4255,7 +4121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4296,7 +4162,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4337,7 +4203,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4378,7 +4244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4419,7 +4285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4457,7 +4323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4495,7 +4361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4536,7 +4402,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4577,7 +4443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4618,7 +4484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4659,7 +4525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4700,7 +4566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4741,7 +4607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4779,7 +4645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4817,7 +4683,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4855,7 +4721,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4893,7 +4759,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4931,7 +4797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4969,7 +4835,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5007,7 +4873,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5045,7 +4911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5083,7 +4949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5121,7 +4987,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5159,7 +5025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5197,7 +5063,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5235,7 +5101,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5273,7 +5139,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5311,7 +5177,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5349,7 +5215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5387,16 +5253,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5422,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5442,7 +5308,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5459,7 +5325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5500,7 +5366,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5551,7 +5417,7 @@
         <v>3.9911062445969244E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5591,11 +5457,11 @@
         <v>11438</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O22" si="3">L6*0.1036</f>
+        <f t="shared" ref="O6:O16" si="3">L6*0.1036</f>
         <v>6.5267999999999993E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P22" si="4">L6*0.7109</f>
+        <f t="shared" ref="P6:P16" si="4">L6*0.7109</f>
         <v>0.44786700000000002</v>
       </c>
       <c r="R6" t="s">
@@ -5610,7 +5476,7 @@
         <v>-7.5802845028438148E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5635,7 +5501,7 @@
         <v>7.639259088347547E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H6:H69" si="5">G7/F7*14/12</f>
+        <f t="shared" ref="H7:H69" si="5">G7/F7*14/12</f>
         <v>15.475169593666815</v>
       </c>
       <c r="K7" t="s">
@@ -5673,7 +5539,7 @@
         <v>0.99992273371434948</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5725,7 +5591,7 @@
         <v>0.4883883</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5757,15 +5623,15 @@
         <v>18</v>
       </c>
       <c r="L9">
-        <f>C68</f>
+        <f t="shared" ref="L9:N10" si="6">C68</f>
         <v>0.58699999999999997</v>
       </c>
       <c r="M9">
-        <f>D68</f>
+        <f t="shared" si="6"/>
         <v>2179</v>
       </c>
       <c r="N9">
-        <f>E68</f>
+        <f t="shared" si="6"/>
         <v>10913</v>
       </c>
       <c r="O9">
@@ -5777,7 +5643,7 @@
         <v>0.41729829999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5809,15 +5675,15 @@
         <v>18</v>
       </c>
       <c r="L10">
-        <f>C69</f>
+        <f t="shared" si="6"/>
         <v>0.999</v>
       </c>
       <c r="M10">
-        <f>D69</f>
+        <f t="shared" si="6"/>
         <v>3645</v>
       </c>
       <c r="N10">
-        <f>E69</f>
+        <f t="shared" si="6"/>
         <v>18007</v>
       </c>
       <c r="O10">
@@ -5829,7 +5695,7 @@
         <v>0.71018910000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5880,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5931,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5982,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6033,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6084,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6135,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6164,7 +6030,7 @@
         <v>4.7916477006554041</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6193,7 +6059,7 @@
         <v>14.585417124490499</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6222,7 +6088,7 @@
         <v>-23.610554122132783</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6251,7 +6117,7 @@
         <v>8.0549276792879017</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6280,7 +6146,7 @@
         <v>5.0024840777904984</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6297,11 +6163,11 @@
         <v>25448</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:G85" si="6">((S$5*D22+S$6))</f>
+        <f t="shared" ref="F22:G69" si="7">((S$5*D22+S$6))</f>
         <v>0.2324092302141402</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0080764326221814</v>
       </c>
       <c r="H22">
@@ -6309,7 +6175,7 @@
         <v>5.0604236772735094</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6326,11 +6192,11 @@
         <v>36934</v>
       </c>
       <c r="F23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34584605783084721</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4664948958765842</v>
       </c>
       <c r="H23">
@@ -6338,7 +6204,7 @@
         <v>4.9470296772699331</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6355,11 +6221,11 @@
         <v>33165</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3057881539435281</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3160701015177261</v>
       </c>
       <c r="H24">
@@ -6367,7 +6233,7 @@
         <v>5.0211726603408655</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6384,11 +6250,11 @@
         <v>30153</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28529796305071231</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1958579814304668</v>
       </c>
       <c r="H25">
@@ -6396,7 +6262,7 @@
         <v>4.8902124294319522</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6413,11 +6279,11 @@
         <v>27127</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25278760560413016</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0750871064689638</v>
       </c>
       <c r="H26">
@@ -6425,7 +6291,7 @@
         <v>4.961747582057737</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6442,11 +6308,11 @@
         <v>27744</v>
       </c>
       <c r="F27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24859452424816519</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.099712231998127</v>
       </c>
       <c r="H27">
@@ -6454,7 +6320,7 @@
         <v>5.1610050860051651</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6471,11 +6337,11 @@
         <v>26182</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23472940189777419</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0373711524575229</v>
       </c>
       <c r="H28">
@@ -6483,7 +6349,7 @@
         <v>5.1560065963140547</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6500,11 +6366,11 @@
         <v>32023</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30447432178532574</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2704916682044292</v>
       </c>
       <c r="H29">
@@ -6512,7 +6378,7 @@
         <v>4.8681946999028378</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6529,11 +6395,11 @@
         <v>29704</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28557750180777663</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1779379143922266</v>
       </c>
       <c r="H30">
@@ -6541,7 +6407,7 @@
         <v>4.8122169688608212</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6558,11 +6424,11 @@
         <v>28037</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26220806171719824</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1114061732947957</v>
       </c>
       <c r="H31">
@@ -6570,7 +6436,7 @@
         <v>4.9450826455102401</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6587,11 +6453,11 @@
         <v>28459</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2651432186663738</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1282486416469948</v>
       </c>
       <c r="H32">
@@ -6599,7 +6465,7 @@
         <v>4.9644493588869203</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6616,11 +6482,11 @@
         <v>28409</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27534638329922201</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1262530885246964</v>
       </c>
       <c r="H33">
@@ -6628,7 +6494,7 @@
         <v>4.7720326697890512</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6645,11 +6511,11 @@
         <v>30924</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.302685273740114</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2266294105763091</v>
       </c>
       <c r="H34">
@@ -6657,7 +6523,7 @@
         <v>4.7279064091538103</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6674,11 +6540,11 @@
         <v>67</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2433859650378355E-4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.9062433189638755E-3</v>
       </c>
       <c r="H35">
@@ -6686,7 +6552,7 @@
         <v>-25.514782690078263</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6703,11 +6569,11 @@
         <v>55741</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32454520454254498</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2171022472979276</v>
       </c>
       <c r="H36">
@@ -6715,7 +6581,7 @@
         <v>7.9699815381963717</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6732,11 +6598,11 @@
         <v>1189</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6305304630606215E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9873968745413615E-2</v>
       </c>
       <c r="H37">
@@ -6744,7 +6610,7 @@
         <v>1.7684505409170199</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6761,11 +6627,11 @@
         <v>1201</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.984795934242008E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0352901494765246E-2</v>
       </c>
       <c r="H38">
@@ -6773,7 +6639,7 @@
         <v>2.371950902610314</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6790,11 +6656,11 @@
         <v>4748</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5258032359568108E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18191743999061816</v>
       </c>
       <c r="H39">
@@ -6802,7 +6668,7 @@
         <v>4.6894883020144889</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6819,11 +6685,11 @@
         <v>4330</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9240461579781728E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16523461588820301</v>
       </c>
       <c r="H40">
@@ -6831,7 +6697,7 @@
         <v>6.5927043596852775</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6848,11 +6714,11 @@
         <v>3444</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6752566641909149E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12987341456107426</v>
       </c>
       <c r="H41">
@@ -6860,7 +6726,7 @@
         <v>5.6637176418514201</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6877,11 +6743,11 @@
         <v>3535</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8932968947010959E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13350532124365747</v>
       </c>
       <c r="H42">
@@ -6889,7 +6755,7 @@
         <v>5.3833468802617093</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6906,11 +6772,11 @@
         <v>1986</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2384274528802345E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.16830855148511E-2</v>
       </c>
       <c r="H43">
@@ -6918,7 +6784,7 @@
         <v>6.7529402904863289</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6935,11 +6801,11 @@
         <v>2061</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8925481444107776E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4676415198298804E-2</v>
       </c>
       <c r="H44">
@@ -6947,7 +6813,7 @@
         <v>4.6034487764716721</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6964,11 +6830,11 @@
         <v>2282</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.355833730847255E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3496759998858E-2</v>
       </c>
       <c r="H45">
@@ -6976,7 +6842,7 @@
         <v>7.1847221712400833</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6993,11 +6859,11 @@
         <v>1985</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7611649285905404E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1643174452405131E-2</v>
       </c>
       <c r="H46">
@@ -7005,7 +6871,7 @@
         <v>4.7459327727300362</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7022,15 +6888,15 @@
         <v>13948</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8661466558749238E-5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54909921449353516</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7047,11 +6913,11 @@
         <v>71</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4047696938448311E-4</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.7465990691799983E-3</v>
       </c>
       <c r="H48">
@@ -7059,7 +6925,7 @@
         <v>-39.420688945009495</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7076,11 +6942,11 @@
         <v>12332</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9326319342807322E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48460293758084888</v>
       </c>
       <c r="H49">
@@ -7088,7 +6954,7 @@
         <v>8.155201360808741</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7105,11 +6971,11 @@
         <v>1496</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1992920268912275E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2126664916326178E-2</v>
       </c>
       <c r="H50">
@@ -7117,7 +6983,7 @@
         <v>5.0708618950817259</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7134,11 +7000,11 @@
         <v>1948</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1769289263260808E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0166465141904277E-2</v>
       </c>
       <c r="H51">
@@ -7146,7 +7012,7 @@
         <v>6.9554646986565691</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7163,11 +7029,11 @@
         <v>1940</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7842767794460054E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9847176642336514E-2</v>
       </c>
       <c r="H52">
@@ -7175,7 +7041,7 @@
         <v>2.926733913487098</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7192,11 +7058,11 @@
         <v>1741</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8645942687043442E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1904875215588642E-2</v>
       </c>
       <c r="H53">
@@ -7204,7 +7070,7 @@
         <v>3.8733549507460459</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7221,11 +7087,11 @@
         <v>1724</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0938160494970985E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1226387154007161E-2</v>
       </c>
       <c r="H54">
@@ -7233,7 +7099,7 @@
         <v>3.4115119630573516</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7250,11 +7116,11 @@
         <v>1556</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2691767161573112E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4521328663084331E-2</v>
       </c>
       <c r="H55">
@@ -7262,7 +7128,7 @@
         <v>5.0117699106697371</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7279,11 +7145,11 @@
         <v>2286</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8701850438456308E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3656404248641875E-2</v>
       </c>
       <c r="H56">
@@ -7291,7 +7157,7 @@
         <v>5.218688846393011</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7308,11 +7174,11 @@
         <v>2760</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7982537172992223E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10257424784803131</v>
       </c>
       <c r="H57">
@@ -7320,7 +7186,7 @@
         <v>4.2765941873992936</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7337,11 +7203,11 @@
         <v>212</v>
       </c>
       <c r="F58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1468164948160882E-3</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8086073570166519E-4</v>
       </c>
       <c r="H58">
@@ -7349,7 +7215,7 @@
         <v>0.89610749667793543</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7366,11 +7232,11 @@
         <v>2535</v>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.766755703731827E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3594258797688221E-2</v>
       </c>
       <c r="H59">
@@ -7378,7 +7244,7 @@
         <v>6.1804414554877551</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7395,11 +7261,11 @@
         <v>2639</v>
       </c>
       <c r="F60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.920502020117211E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.7745009292069016E-2</v>
       </c>
       <c r="H60">
@@ -7407,7 +7273,7 @@
         <v>5.9378143308133957</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7424,11 +7290,11 @@
         <v>2759</v>
       </c>
       <c r="F61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1204720382135254E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10253433678558534</v>
       </c>
       <c r="H61">
@@ -7436,7 +7302,7 @@
         <v>2.9031477900376732</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7453,11 +7319,11 @@
         <v>3642</v>
       </c>
       <c r="F62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7032105398973483E-2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13777580492537617</v>
       </c>
       <c r="H62">
@@ -7465,7 +7331,7 @@
         <v>5.9462049554493595</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7482,11 +7348,11 @@
         <v>5402</v>
       </c>
       <c r="F63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0107031726681166E-2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20801927483028204</v>
       </c>
       <c r="H63">
@@ -7494,7 +7360,7 @@
         <v>8.0608794706782305</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7511,11 +7377,11 @@
         <v>4846</v>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6704146393399466E-2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18582872411032314</v>
       </c>
       <c r="H64">
@@ -7523,7 +7389,7 @@
         <v>5.9066944591224084</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7540,11 +7406,11 @@
         <v>5036</v>
       </c>
       <c r="F65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0666109240809834E-2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19341182597505729</v>
       </c>
       <c r="H65">
@@ -7552,7 +7418,7 @@
         <v>7.3581923462252226</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7569,11 +7435,11 @@
         <v>5468</v>
       </c>
       <c r="F66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0274754980919766E-2</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.210653404951716</v>
       </c>
       <c r="H66">
@@ -7581,7 +7447,7 @@
         <v>8.1177306284358099</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7598,11 +7464,11 @@
         <v>441</v>
       </c>
       <c r="F67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0070471162839207E-3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0020494035828623E-2</v>
       </c>
       <c r="H67">
@@ -7610,7 +7476,7 @@
         <v>11.608768036864547</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7627,11 +7493,11 @@
         <v>10913</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0940156630877283E-2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42796913997001856</v>
       </c>
       <c r="H68">
@@ -7639,7 +7505,7 @@
         <v>8.1932400172407274</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7656,11 +7522,11 @@
         <v>18007</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10192053841650876</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.71109821696172437</v>
       </c>
       <c r="H69">
@@ -7675,16 +7541,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -7736,7 +7602,7 @@
         <v>15.475169593666815</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7</v>
       </c>
@@ -7762,7 +7628,7 @@
         <v>14.077081091263032</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8</v>
       </c>
@@ -7788,7 +7654,7 @@
         <v>16.127104566638671</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -7814,7 +7680,7 @@
         <v>5.2042189977237685</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -7840,7 +7706,7 @@
         <v>5.0291803766598546</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11</v>
       </c>
@@ -7866,7 +7732,7 @@
         <v>5.5201918438046524</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12</v>
       </c>
@@ -7892,7 +7758,7 @@
         <v>6.089799332054195</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7918,7 +7784,7 @@
         <v>2.1859473011348949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>14</v>
       </c>
@@ -7944,7 +7810,7 @@
         <v>9.6214004254981127</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15</v>
       </c>
@@ -7970,7 +7836,7 @@
         <v>13.454160732632149</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>16</v>
       </c>
@@ -7996,7 +7862,7 @@
         <v>4.7916477006554041</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>17</v>
       </c>
@@ -8022,7 +7888,7 @@
         <v>14.585417124490499</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>36</v>
       </c>
@@ -8048,7 +7914,7 @@
         <v>1.7684505409170199</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>37</v>
       </c>
@@ -8083,16 +7949,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8126,8 +7992,20 @@
       <c r="L1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -8164,11 +8042,23 @@
         <f>K2/J2*14/12</f>
         <v>5.0024840777904993</v>
       </c>
-      <c r="N2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>J3</f>
+        <v>10.931760593327386</v>
+      </c>
+      <c r="N2">
+        <f>K3</f>
+        <v>47.416577263508067</v>
+      </c>
+      <c r="O2">
+        <f>L3</f>
+        <v>5.0604236772735094</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
@@ -8206,7 +8096,7 @@
         <v>5.0604236772735094</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22</v>
       </c>
@@ -8243,8 +8133,20 @@
         <f t="shared" si="2"/>
         <v>4.9470296772699331</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f>AVERAGE(J4:J5)</f>
+        <v>10.924129186813214</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:O4" si="3">AVERAGE(K4:K5)</f>
+        <v>46.667739263042762</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>4.9841011688053989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>23</v>
       </c>
@@ -8282,7 +8184,7 @@
         <v>5.0211726603408655</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -8319,8 +8221,20 @@
         <f t="shared" si="2"/>
         <v>4.8902124294319522</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f>AVERAGE(J6:J7)</f>
+        <v>10.27916890394612</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:O6" si="4">AVERAGE(K6:K7)</f>
+        <v>43.39079030786408</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>4.9259800057448437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>25</v>
       </c>
@@ -8358,7 +8272,7 @@
         <v>4.9617475820577361</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>26</v>
       </c>
@@ -8395,8 +8309,20 @@
         <f t="shared" si="2"/>
         <v>5.1610050860051651</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>AVERAGE(J8:J9)</f>
+        <v>10.5067899672907</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:O8" si="5">AVERAGE(K8:K9)</f>
+        <v>46.456594322914263</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>5.1585058411596094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>27</v>
       </c>
@@ -8434,7 +8360,7 @@
         <v>5.1560065963140547</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>28</v>
       </c>
@@ -8471,8 +8397,20 @@
         <f t="shared" si="2"/>
         <v>4.8681946999028378</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>AVERAGE(J10:J11)</f>
+        <v>11.001706147676558</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:O10" si="6">AVERAGE(K10:K11)</f>
+        <v>45.642309034012264</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>4.8402058343818286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>29</v>
       </c>
@@ -8510,7 +8448,7 @@
         <v>4.8122169688608194</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>30</v>
       </c>
@@ -8547,8 +8485,20 @@
         <f t="shared" si="2"/>
         <v>4.945082645510241</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>AVERAGE(J12:J13)</f>
+        <v>10.89603680342548</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:O12" si="7">AVERAGE(K12:K13)</f>
+        <v>46.274520654457682</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>4.9547660021985802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>31</v>
       </c>
@@ -8586,7 +8536,7 @@
         <v>4.9644493588869203</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32</v>
       </c>
@@ -8623,8 +8573,20 @@
         <f t="shared" si="2"/>
         <v>4.7720326697890512</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>AVERAGE(J14:J15)</f>
+        <v>11.155228490028621</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:O14" si="8">AVERAGE(K14:K15)</f>
+        <v>45.416770124778239</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>4.7499695394714312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>33</v>
       </c>
@@ -8668,16 +8630,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>63</v>
       </c>
@@ -8729,7 +8691,7 @@
         <v>5.9066944591224084</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>38</v>
       </c>
@@ -8755,7 +8717,7 @@
         <v>4.6894883020144889</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>39</v>
       </c>
@@ -8781,7 +8743,7 @@
         <v>6.5927043596852775</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40</v>
       </c>
@@ -8807,7 +8769,7 @@
         <v>5.6637176418514201</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>41</v>
       </c>
@@ -8833,7 +8795,7 @@
         <v>5.3833468802617093</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>42</v>
       </c>
@@ -8859,7 +8821,7 @@
         <v>6.7529402904863289</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>43</v>
       </c>
@@ -8885,7 +8847,7 @@
         <v>4.6034487764716721</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>44</v>
       </c>
@@ -8911,7 +8873,7 @@
         <v>7.1847221712400833</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>45</v>
       </c>
@@ -8937,7 +8899,7 @@
         <v>4.7459327727300362</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>49</v>
       </c>
@@ -8963,7 +8925,7 @@
         <v>5.0708618950817259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -8989,7 +8951,7 @@
         <v>6.9554646986565691</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>51</v>
       </c>
@@ -9015,7 +8977,7 @@
         <v>2.926733913487098</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>52</v>
       </c>
@@ -9041,7 +9003,7 @@
         <v>3.8733549507460459</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53</v>
       </c>
@@ -9067,7 +9029,7 @@
         <v>3.4115119630573516</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>54</v>
       </c>
@@ -9093,7 +9055,7 @@
         <v>5.0117699106697371</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>55</v>
       </c>
@@ -9119,7 +9081,7 @@
         <v>5.218688846393011</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>56</v>
       </c>
@@ -9145,7 +9107,7 @@
         <v>4.2765941873992936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>58</v>
       </c>
@@ -9171,7 +9133,7 @@
         <v>6.1804414554877551</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>59</v>
       </c>
@@ -9197,7 +9159,7 @@
         <v>5.9378143308133957</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>60</v>
       </c>
@@ -9223,7 +9185,7 @@
         <v>2.9031477900376732</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>61</v>
       </c>
@@ -9249,7 +9211,7 @@
         <v>5.9462049554493595</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>62</v>
       </c>
@@ -9275,7 +9237,7 @@
         <v>8.0608794706782305</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>64</v>
       </c>
@@ -9301,7 +9263,7 @@
         <v>7.3581923462252226</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>65</v>
       </c>
